--- a/cadastro_unico_mes.xlsx
+++ b/cadastro_unico_mes.xlsx
@@ -1,31 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2766E76F-A359-4A52-A5F0-487C3ABA5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F409CE-AC58-42F0-8387-79FC140DDB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6A97289A-1908-4254-ACDA-B836AF5FBFA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0975526D-EB6F-41B4-BFFB-EFF16592581E}"/>
   </bookViews>
   <sheets>
-    <sheet name="cadastro_unico_mes" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
-    <t>cadunico</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>ARNIQUEIRA</t>
+  </si>
+  <si>
+    <t>BRAZLANDIA</t>
+  </si>
+  <si>
+    <t>CANDANGOLANDIA</t>
+  </si>
+  <si>
+    <t>CEILANDIA</t>
+  </si>
+  <si>
+    <t>ESTRUTURAL</t>
+  </si>
+  <si>
+    <t>FERCAL</t>
+  </si>
+  <si>
+    <t>GAMA</t>
+  </si>
+  <si>
+    <t>GUARA</t>
+  </si>
+  <si>
+    <t>ITAPOA</t>
+  </si>
+  <si>
+    <t>LAGO NORTE</t>
+  </si>
+  <si>
+    <t>LAGO SUL</t>
+  </si>
+  <si>
+    <t>PARANOA</t>
+  </si>
+  <si>
+    <t>PLANALTINA</t>
+  </si>
+  <si>
+    <t>SAMAMBAIA</t>
+  </si>
+  <si>
+    <t>SIA</t>
+  </si>
+  <si>
+    <t>SOBRADINHO</t>
+  </si>
+  <si>
+    <t>SOBRADINHO II</t>
+  </si>
+  <si>
+    <t>SOL NASCENTE E POR DO SOL</t>
+  </si>
+  <si>
+    <t>TAGUATINGA</t>
+  </si>
+  <si>
+    <t>VARJAO</t>
+  </si>
+  <si>
+    <t>CRUZEIRO</t>
+  </si>
+  <si>
+    <t>ARAPOANGA</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>fev</t>
+  </si>
+  <si>
+    <t>mar</t>
   </si>
   <si>
     <t>abr</t>
@@ -34,34 +114,58 @@
     <t>mai</t>
   </si>
   <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
     <t>ago</t>
   </si>
   <si>
-    <t>jul</t>
+    <t>set</t>
   </si>
   <si>
     <t>out</t>
   </si>
   <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>fev</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
     <t>nov</t>
   </si>
   <si>
     <t>dez</t>
+  </si>
+  <si>
+    <t>A CLARAS</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>R EMAS</t>
+  </si>
+  <si>
+    <t>R FUNDO</t>
+  </si>
+  <si>
+    <t>R FUNDO II</t>
+  </si>
+  <si>
+    <t>S MARIA</t>
+  </si>
+  <si>
+    <t>S SEBAS</t>
+  </si>
+  <si>
+    <t>SUDOESTE</t>
+  </si>
+  <si>
+    <t>A QUENTE</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -71,10 +175,9 @@
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -545,8 +648,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -579,7 +683,7 @@
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -921,116 +1025,1212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DF5828-F60F-480B-9A7F-04120EE6F744}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04935BBA-A0CA-4AD8-B9BE-ED085C47FB13}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>6825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
-        <v>6824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>7219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>7061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>7496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>6615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>6770</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="L11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>6911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>7005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1">
+        <v>9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="1">
+        <v>159</v>
+      </c>
+      <c r="D17" s="1">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1">
+        <v>136</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>117</v>
+      </c>
+      <c r="I17" s="1">
+        <v>112</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1">
+        <v>111</v>
+      </c>
+      <c r="L17" s="1">
+        <v>97</v>
+      </c>
+      <c r="M17" s="1">
+        <v>54</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>7627</v>
-      </c>
+      <c r="J18" s="1">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="1">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1">
+        <v>67</v>
+      </c>
+      <c r="G28" s="1">
+        <v>73</v>
+      </c>
+      <c r="H28" s="1">
+        <v>76</v>
+      </c>
+      <c r="I28" s="1">
+        <v>54</v>
+      </c>
+      <c r="J28" s="1">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1">
+        <v>55</v>
+      </c>
+      <c r="L28" s="1">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1">
+        <v>41</v>
+      </c>
+      <c r="N28" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
